--- a/Client/Assets/Data/XLSXS/SkillData.xlsx
+++ b/Client/Assets/Data/XLSXS/SkillData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Sub_project\Client\Assets\Data\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\SubProject\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DFE5ED-D1CF-4DF4-9AEB-D93C07923386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC79CFEF-C97C-4F7F-9852-9D7D35C4E117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WarriorDash_tl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WarriorDef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -151,18 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WarriorDef_tl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarriorAttack_tl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WarriorBuff_tl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[100201]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,6 +164,22 @@
   </si>
   <si>
     <t>Parrying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarriorDash_1001tl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarriorDef_1002tl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarriorAttack_1003tl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarriorBuff_1004tl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +535,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -546,7 +546,7 @@
     <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -632,13 +632,13 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -652,16 +652,16 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -678,13 +678,13 @@
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -701,13 +701,13 @@
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Assets/Data/XLSXS/SkillData.xlsx
+++ b/Client/Assets/Data/XLSXS/SkillData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\SubProject\Client\Assets\Data\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC79CFEF-C97C-4F7F-9852-9D7D35C4E117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE1DCB4-FB3C-4737-A149-157249F2A63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -547,6 +547,7 @@
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
